--- a/relatorios/repasses_liberados/dentistas/97735825668/2023-08-25_relatorio_repasses_97735825668.xlsx
+++ b/relatorios/repasses_liberados/dentistas/97735825668/2023-08-25_relatorio_repasses_97735825668.xlsx
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N8">
-        <v>2.66</v>
+        <v>1.596</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -7638,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8034,10 +8034,10 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N165">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -10146,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="M215">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -10322,10 +10322,10 @@
         <v>0.035439</v>
       </c>
       <c r="M217">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N217">
-        <v>0.815097</v>
+        <v>0.4890581999999999</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -10410,10 +10410,10 @@
         <v>0.616333</v>
       </c>
       <c r="M219">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N219">
-        <v>147.91992</v>
+        <v>246.5332</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -10454,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N220">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N223">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/97735825668/2023-08-25_relatorio_repasses_97735825668.xlsx
+++ b/relatorios/repasses_liberados/dentistas/97735825668/2023-08-25_relatorio_repasses_97735825668.xlsx
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N19">
-        <v>9.904999999999999</v>
+        <v>5.943</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N20">
-        <v>2.66</v>
+        <v>1.596</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1698,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N21">
-        <v>122.98</v>
+        <v>73.788</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N22">
-        <v>122.98</v>
+        <v>98.38400000000001</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1786,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N23">
-        <v>12.6</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -1962,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N27">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N31">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2226,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N33">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N36">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N39">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N43">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2798,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N46">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3018,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N51">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3106,10 +3106,10 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N53">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3194,10 +3194,10 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N55">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3282,10 +3282,10 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N57">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3458,10 +3458,10 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N61">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6406,10 +6406,10 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N128">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -7946,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8738,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -9090,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N189">
         <v>0</v>
@@ -9134,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -9970,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -10146,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="M215">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -10278,10 +10278,10 @@
         <v>0.038521</v>
       </c>
       <c r="M216">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N216">
-        <v>0.577815</v>
+        <v>0.77042</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -10322,10 +10322,10 @@
         <v>0.035439</v>
       </c>
       <c r="M217">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N217">
-        <v>0.4890581999999999</v>
+        <v>0.6520776</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -10366,10 +10366,10 @@
         <v>0.309707</v>
       </c>
       <c r="M218">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N218">
-        <v>37.3506642</v>
+        <v>49.80088560000001</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -10410,10 +10410,10 @@
         <v>0.616333</v>
       </c>
       <c r="M219">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N219">
-        <v>246.5332</v>
+        <v>197.22656</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -10454,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N220">
         <v>0</v>
@@ -10542,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N223">
         <v>0</v>
@@ -10630,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="M224">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N224">
         <v>0</v>
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N225">
         <v>0</v>
